--- a/similarities/split_global/harmonic_similarity_timestamps_399.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_399.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C#:maj', 'G#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+          <t>('0:00:09.060000', '0:00:10.780000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.980000', '0:00:08.680000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['Ab:maj6', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['Eb:maj6', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:01:29.123000', '0:01:33.410000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:00:22.730000', '0:00:28.480000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=89.123</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=22.73</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+          <t>('0:00:24.580000', '0:00:32.940000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
+          <t>('0:00:23.140000', '0:00:30.460000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=237.58']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:27.200000', '0:01:41.180000')]</t>
+          <t>('0:00:14.840000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:17.506000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=87.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:09.540000', '0:00:11.420000'), ('0:00:00.580000', '0:00:08.960000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000'), ('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['E:7', 'A:min', 'A:min/b3']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:7', 'F:min/C', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:05.672040', '0:00:08.841564')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:36.640000', '0:00:38.520000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=36.64</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:21.170000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+          <t>('0:00:16.701519', '0:00:23.528185')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:34.866000')]</t>
+          <t>('0:00:00.780000', '0:00:23.840000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+          <t>('0:00:11.200000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:33.100000', '0:00:49.660000')]</t>
+          <t>('0:00:00.560000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=11.2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=33.1']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['F#:7', 'B:maj', 'B:min']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000'), ('0:00:30.520000', '0:00:40.640000')]</t>
+          <t>('0:00:08.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:01:00.680000', '0:01:03.420000')]</t>
+          <t>('0:00:01.920000', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=30.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.68']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['A#', 'A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+          <t>('0:00:18.920000', '0:00:21.940000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000')]</t>
+          <t>('0:04:29.700000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.92</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:10.580000', '0:00:17.960000')]</t>
+          <t>('0:00:41.080000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:25.480000', '0:00:56.440000')]</t>
+          <t>('0:00:02.980000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=10.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:59.182426', '0:01:04.464965')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:13.120000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000')]</t>
+          <t>('0:00:23.980000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:05.500000', '0:00:10.400000')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=5.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
